--- a/food/迷迭香提取物.xlsx
+++ b/food/迷迭香提取物.xlsx
@@ -760,7 +760,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">仅限油炸坚果与籽类 </t>
+          <t>2024年3月13日由关于石斛原球茎等23种“三新食品”的公告（2024年第2号）增补</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">仅限油炸坚果与籽类 </t>
+          <t>2024年3月13日由关于石斛原球茎等23种“三新食品”的公告（2024年第2号）增补</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">仅限油炸坚果与籽类 </t>
+          <t>2024年3月13日由关于石斛原球茎等23种“三新食品”的公告（2024年第2号）增补</t>
         </is>
       </c>
     </row>

--- a/food/迷迭香提取物.xlsx
+++ b/food/迷迭香提取物.xlsx
@@ -760,7 +760,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024年3月13日由关于石斛原球茎等23种“三新食品”的公告（2024年第2号）增补</t>
+          <t xml:space="preserve">仅限油炸坚果与籽类 </t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024年3月13日由关于石斛原球茎等23种“三新食品”的公告（2024年第2号）增补</t>
+          <t xml:space="preserve">仅限油炸坚果与籽类 </t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024年3月13日由关于石斛原球茎等23种“三新食品”的公告（2024年第2号）增补</t>
+          <t xml:space="preserve">仅限油炸坚果与籽类 </t>
         </is>
       </c>
     </row>
